--- a/Test_Results_01-10-2026.xlsx
+++ b/Test_Results_01-10-2026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,726 +476,1826 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>7.58</v>
+        <v>42.93</v>
       </c>
       <c r="C2" t="n">
-        <v>7.82</v>
+        <v>43.57</v>
       </c>
       <c r="D2" t="n">
-        <v>3.16622691292876</v>
+        <v>1.490798975075713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7680445102960398</v>
+        <v>-0.5196504869317664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03562450294602049</v>
+        <v>0.003909631372213229</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ACHR</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B3" t="n">
-        <v>8.42</v>
+        <v>45.45</v>
       </c>
       <c r="C3" t="n">
-        <v>8.710000000000001</v>
+        <v>46.21</v>
       </c>
       <c r="D3" t="n">
-        <v>3.444180522565321</v>
+        <v>1.672167216721676</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02646669607409002</v>
+        <v>-0.1671224551807904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04195180802799914</v>
+        <v>0.005847505499159134</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ACHR</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B4" t="n">
-        <v>26.92</v>
+        <v>44.02</v>
       </c>
       <c r="C4" t="n">
-        <v>27.54</v>
+        <v>44.24</v>
       </c>
       <c r="D4" t="n">
-        <v>2.303120356612176</v>
+        <v>0.4997728305315752</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4952793685188084</v>
+        <v>-0.3786430046660905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01088536647571148</v>
+        <v>0.04214199690685771</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46017.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>26.36</v>
+        <v>43.55</v>
       </c>
       <c r="C5" t="n">
-        <v>26.93</v>
+        <v>44.08</v>
       </c>
       <c r="D5" t="n">
-        <v>2.162367223065242</v>
+        <v>1.216991963260616</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5250342413635645</v>
+        <v>1.39174258577246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009210576573895679</v>
+        <v>0.005921926429973468</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>26.69</v>
+        <v>44.08</v>
       </c>
       <c r="C6" t="n">
-        <v>26.37</v>
+        <v>45.74</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.198950917946795</v>
+        <v>3.765880217785855</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9674818597151469</v>
+        <v>1.311462873747793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005125564012009698</v>
+        <v>0.001747506225118434</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>26.36</v>
+        <v>47.27</v>
       </c>
       <c r="C7" t="n">
-        <v>26.85</v>
+        <v>47.44</v>
       </c>
       <c r="D7" t="n">
-        <v>1.858877086494704</v>
+        <v>0.3596361328538134</v>
       </c>
       <c r="E7" t="n">
-        <v>1.311462873747793</v>
+        <v>0.6580177216136462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01429664466697755</v>
+        <v>0.002644073185914309</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B8" t="n">
-        <v>13.83</v>
+        <v>47.44</v>
       </c>
       <c r="C8" t="n">
-        <v>13.86</v>
+        <v>47.81</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2169197396963085</v>
+        <v>0.7799325463743845</v>
       </c>
       <c r="E8" t="n">
-        <v>1.324159418408399</v>
+        <v>0.9508598595995954</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01526826409688742</v>
+        <v>0.002983815887598329</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B9" t="n">
-        <v>13.53</v>
+        <v>7.58</v>
       </c>
       <c r="C9" t="n">
-        <v>13.86</v>
+        <v>7.82</v>
       </c>
       <c r="D9" t="n">
-        <v>2.439024390243905</v>
+        <v>3.16622691292876</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2323480056796168</v>
+        <v>0.7680445102960398</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01765713500826982</v>
+        <v>0.03562450294602049</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>ACHR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B10" t="n">
-        <v>223.67</v>
+        <v>8.42</v>
       </c>
       <c r="C10" t="n">
-        <v>224.31</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2861358250994872</v>
+        <v>3.444180522565321</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.223625140291818</v>
+        <v>0.02646669607409002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0184461629416055</v>
+        <v>0.04195180802799914</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ACHR</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>222.82</v>
+        <v>26.92</v>
       </c>
       <c r="C11" t="n">
-        <v>226.82</v>
+        <v>27.54</v>
       </c>
       <c r="D11" t="n">
-        <v>1.79517099003681</v>
+        <v>2.303120356612176</v>
       </c>
       <c r="E11" t="n">
-        <v>2.161933022467144</v>
+        <v>0.4952793685188084</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02206694178925772</v>
+        <v>0.01088536647571148</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>AEO</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46017.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>220.18</v>
+        <v>26.36</v>
       </c>
       <c r="C12" t="n">
-        <v>223.93</v>
+        <v>26.93</v>
       </c>
       <c r="D12" t="n">
-        <v>1.703151966572802</v>
+        <v>2.162367223065242</v>
       </c>
       <c r="E12" t="n">
-        <v>1.403678606001946</v>
+        <v>-0.5250342413635645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0420326996839141</v>
+        <v>0.009210576573895679</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>AEO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>224.13</v>
+        <v>26.69</v>
       </c>
       <c r="C13" t="n">
-        <v>220.08</v>
+        <v>26.37</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.806987016463657</v>
+        <v>-1.198950917946795</v>
       </c>
       <c r="E13" t="n">
-        <v>1.324181919023837</v>
+        <v>-0.9674818597151469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0241713040381103</v>
+        <v>0.005125564012009698</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>AEO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>46.14</v>
+        <v>26.36</v>
       </c>
       <c r="C14" t="n">
-        <v>45.49</v>
+        <v>26.85</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.408755960121366</v>
+        <v>1.858877086494704</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07279344858963643</v>
+        <v>1.311462873747793</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02474334301366932</v>
+        <v>0.01429664466697755</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AEO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B15" t="n">
-        <v>45.49</v>
+        <v>200.71</v>
       </c>
       <c r="C15" t="n">
-        <v>46.56</v>
+        <v>204.38</v>
       </c>
       <c r="D15" t="n">
-        <v>2.352165311057375</v>
+        <v>1.828508793782069</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6364793598836127</v>
+        <v>0.1457991616548249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01481549408711003</v>
+        <v>0.008171101880761977</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B16" t="n">
-        <v>53.65</v>
+        <v>206.33</v>
       </c>
       <c r="C16" t="n">
-        <v>53.63</v>
+        <v>208.27</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03727865796830931</v>
+        <v>0.9402413609266747</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5412231643514342</v>
+        <v>-0.1647446457990198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003291483813932516</v>
+        <v>0.00165530811692316</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>53.63</v>
+        <v>216.85</v>
       </c>
       <c r="C17" t="n">
-        <v>54.25</v>
+        <v>218.16</v>
       </c>
       <c r="D17" t="n">
-        <v>1.156069364161838</v>
+        <v>0.6041042195065627</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1973802260900714</v>
+        <v>0.5412231643514342</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005785018223197436</v>
+        <v>0.001942313994624412</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46017.20833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>53.77</v>
+        <v>216.44</v>
       </c>
       <c r="C18" t="n">
-        <v>54.38</v>
+        <v>217.25</v>
       </c>
       <c r="D18" t="n">
-        <v>1.134461595685332</v>
+        <v>0.3742376640177403</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2530730296457007</v>
+        <v>-0.5393743257820827</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00345418300946021</v>
+        <v>0.005910319484607185</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>53.14</v>
+        <v>227.38</v>
       </c>
       <c r="C19" t="n">
-        <v>56.54</v>
+        <v>234.53</v>
       </c>
       <c r="D19" t="n">
-        <v>6.398193451260825</v>
+        <v>3.144515788547797</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2921307285010055</v>
+        <v>-0.3041144901610005</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01537227257585294</v>
+        <v>0.008458796124143353</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>61.09</v>
+        <v>13.83</v>
       </c>
       <c r="C20" t="n">
-        <v>63.67</v>
+        <v>13.86</v>
       </c>
       <c r="D20" t="n">
-        <v>4.223277132100178</v>
+        <v>0.2169197396963085</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3041144901610005</v>
+        <v>1.324159418408399</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03151390120308795</v>
+        <v>0.01526826409688742</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AES</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B21" t="n">
-        <v>2.42</v>
+        <v>13.53</v>
       </c>
       <c r="C21" t="n">
-        <v>2.48</v>
+        <v>13.86</v>
       </c>
       <c r="D21" t="n">
-        <v>2.479338842975198</v>
+        <v>2.439024390243905</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7619901389511519</v>
+        <v>0.2323480056796168</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01361748878088753</v>
+        <v>0.01765713500826982</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AES</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>2.47</v>
+        <v>223.67</v>
       </c>
       <c r="C22" t="n">
-        <v>2.51</v>
+        <v>224.31</v>
       </c>
       <c r="D22" t="n">
-        <v>1.61943319838056</v>
+        <v>0.2861358250994872</v>
       </c>
       <c r="E22" t="n">
-        <v>2.716319824753555</v>
+        <v>-2.223625140291818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02102437933348233</v>
+        <v>0.0184461629416055</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>2.51</v>
+        <v>222.82</v>
       </c>
       <c r="C23" t="n">
-        <v>2.51</v>
+        <v>226.82</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.79517099003681</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.66581360631265</v>
+        <v>2.161933022467144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01096886626372995</v>
+        <v>0.02206694178925772</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>124.54</v>
+        <v>220.18</v>
       </c>
       <c r="C24" t="n">
-        <v>124.81</v>
+        <v>223.93</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2167978159627326</v>
+        <v>1.703151966572802</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2921348314606775</v>
+        <v>1.403678606001946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01183116739523038</v>
+        <v>0.0420326996839141</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>124.57</v>
+        <v>224.13</v>
       </c>
       <c r="C25" t="n">
-        <v>125.78</v>
+        <v>220.08</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9713414144657762</v>
+        <v>-1.806987016463657</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7619901389511519</v>
+        <v>1.324181919023837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01166503078691861</v>
+        <v>0.0241713040381103</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>126.45</v>
+        <v>46.14</v>
       </c>
       <c r="C26" t="n">
-        <v>127.78</v>
+        <v>45.49</v>
       </c>
       <c r="D26" t="n">
-        <v>1.051799130090947</v>
+        <v>-1.408755960121366</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.66581360631265</v>
+        <v>0.07279344858963643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.008965275709488907</v>
+        <v>0.02474334301366932</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B27" t="n">
-        <v>8.140000000000001</v>
+        <v>45.49</v>
       </c>
       <c r="C27" t="n">
-        <v>8.130000000000001</v>
+        <v>46.56</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1228501228501155</v>
+        <v>2.352165311057375</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.759464973928814</v>
+        <v>-0.6364793598836127</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006010592953868965</v>
+        <v>0.01481549408711003</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B28" t="n">
-        <v>8.08</v>
+        <v>53.65</v>
       </c>
       <c r="C28" t="n">
-        <v>8.140000000000001</v>
+        <v>53.63</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7425742574257432</v>
+        <v>-0.03727865796830931</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3294331477905366</v>
+        <v>0.5412231643514342</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003575753278979077</v>
+        <v>0.003291483813932516</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B29" t="n">
-        <v>8.050000000000001</v>
+        <v>53.63</v>
       </c>
       <c r="C29" t="n">
-        <v>8.07</v>
+        <v>54.25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248447204968949</v>
+        <v>1.156069364161838</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.7967220578192657</v>
+        <v>-0.1973802260900714</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001328404385800175</v>
+        <v>0.005785018223197436</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B30" t="n">
+        <v>53.77</v>
+      </c>
+      <c r="C30" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.134461595685332</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.2530730296457007</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00345418300946021</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B31" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56.54</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.398193451260825</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2921307285010055</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01537227257585294</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B32" t="n">
+        <v>61.09</v>
+      </c>
+      <c r="C32" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.223277132100178</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.3041144901610005</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03151390120308795</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.479338842975198</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7619901389511519</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01361748878088753</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ABEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>46024.20833333334</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.61943319838056</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.716319824753555</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02102437933348233</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ABEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.66581360631265</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01096886626372995</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ABEV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.377245508982039</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.3153492836087013</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.03682760543308694</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>46024.20833333334</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.102117061021173</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2217602217602144</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03830654995901261</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>46029.20833333334</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B38" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="C38" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.2229654403567594</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.5628199003617</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0408483918627115</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>46003.20833333334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2430133657351119</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.145165664332314</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001211221260844941</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7263922518159882</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.009452093638739889</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.004544261839264818</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.300236406619382</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5929228725927382</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0006757376935631054</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>124.54</v>
+      </c>
+      <c r="C42" t="n">
+        <v>124.81</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2167978159627326</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.2921348314606775</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01183116739523038</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>124.57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>125.78</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9713414144657762</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.7619901389511519</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01166503078691861</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B44" t="n">
+        <v>126.45</v>
+      </c>
+      <c r="C44" t="n">
+        <v>127.78</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.051799130090947</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.66581360631265</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.008965275709488907</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>46007.20833333334</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.8928571428571397</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.223625140291818</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0089193243721436</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.2661934338952898</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3872752420470249</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.003552482889531472</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2669039145907437</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5442270597960874</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.006534686759423147</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.08873114463177068</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2398081534772389</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.002773231452053437</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B49" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.329787234042556</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.157211209842778</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001510770088454683</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-1.797175866495504</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1827125790583306</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001747716901832952</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.95023537323471</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.161933022467144</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.007288755728653173</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.253298153034299</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3872752420470249</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.002116976492324341</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.09324758842444</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.157211209842778</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001110251528333217</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="C54" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.78880553952685</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0008303708034206325</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B55" t="n">
+        <v>126.51</v>
+      </c>
+      <c r="C55" t="n">
+        <v>129.61</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.450399177930596</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.7548392322021424</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.009299739382311545</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B56" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="C56" t="n">
+        <v>141.38</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.072347726622813</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5929228725927382</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.005404234662526708</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B57" t="n">
+        <v>138.91</v>
+      </c>
+      <c r="C57" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-1.914908933842052</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.01734550672533031</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01426415806101744</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B58" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>140.16</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.869724770642201</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6702835693782827</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01897563427116722</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B59" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-1.992882562277587</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.05760067026233662</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.02832772601794331</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.002967359050434</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9529294727472548</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01742835032014023</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B61" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="C61" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.244509516837478</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7937326048860882</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.02306445338412733</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1827125790583306</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01402307956933357</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.546391752577314</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.3153492836087013</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01072422930319361</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.352941176470591</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01294322956781158</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.1228501228501155</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.759464973928814</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.006010592953868965</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7425742574257432</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.3294331477905366</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.003575753278979077</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.248447204968949</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7967220578192657</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.001328404385800175</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B68" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C68" t="n">
         <v>8.25</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D68" t="n">
         <v>0.6097560975609762</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E68" t="n">
         <v>-0.5011960359949996</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F68" t="n">
         <v>0.005843263061411585</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.048065650644782</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.3831417624520994</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01886764251108142</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7662835249041988</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.5560498220640531</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01898353775314787</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.820224719101128</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.14646576556612</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.02038163075934196</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B72" t="n">
+        <v>122.36</v>
+      </c>
+      <c r="C72" t="n">
+        <v>124.62</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.847008826413865</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.1647446457990198</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.02970678013655526</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B73" t="n">
+        <v>130.73</v>
+      </c>
+      <c r="C73" t="n">
+        <v>131.32</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4513118641474856</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1988430947216235</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01172710984842917</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B74" t="n">
+        <v>132.44</v>
+      </c>
+      <c r="C74" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-1.064633041377228</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.7430228343602741</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01021619478740443</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ANET</t>
         </is>
       </c>
     </row>

--- a/Test_Results_01-10-2026.xlsx
+++ b/Test_Results_01-10-2026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,122 +801,122 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46002.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B15" t="n">
-        <v>200.71</v>
+        <v>3.01</v>
       </c>
       <c r="C15" t="n">
-        <v>204.38</v>
+        <v>3.22</v>
       </c>
       <c r="D15" t="n">
-        <v>1.828508793782069</v>
+        <v>6.976744186046524</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1457991616548249</v>
+        <v>-0.145165664332314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008171101880761977</v>
+        <v>0.01193369206734951</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BFLY</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46017.20833333334</v>
       </c>
       <c r="B16" t="n">
-        <v>206.33</v>
+        <v>3.85</v>
       </c>
       <c r="C16" t="n">
-        <v>208.27</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9402413609266747</v>
+        <v>-1.29870129870131</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1647446457990198</v>
+        <v>-0.352844811291031</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00165530811692316</v>
+        <v>0.02541097663258995</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BFLY</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B17" t="n">
-        <v>216.85</v>
+        <v>3.75</v>
       </c>
       <c r="C17" t="n">
-        <v>218.16</v>
+        <v>3.87</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6041042195065627</v>
+        <v>3.200000000000003</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5412231643514342</v>
+        <v>0.662104090402682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001942313994624412</v>
+        <v>0.01502353662927258</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BFLY</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46017.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>216.44</v>
+        <v>4.15</v>
       </c>
       <c r="C18" t="n">
-        <v>217.25</v>
+        <v>4.04</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3742376640177403</v>
+        <v>-2.650602409638558</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5393743257820827</v>
+        <v>0.6702835693782827</v>
       </c>
       <c r="F18" t="n">
-        <v>0.005910319484607185</v>
+        <v>0.01407832640543072</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BFLY</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>227.38</v>
+        <v>200.71</v>
       </c>
       <c r="C19" t="n">
-        <v>234.53</v>
+        <v>204.38</v>
       </c>
       <c r="D19" t="n">
-        <v>3.144515788547797</v>
+        <v>1.828508793782069</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3041144901610005</v>
+        <v>0.1457991616548249</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008458796124143353</v>
+        <v>0.008171101880761977</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -926,251 +926,251 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B20" t="n">
-        <v>13.83</v>
+        <v>206.33</v>
       </c>
       <c r="C20" t="n">
-        <v>13.86</v>
+        <v>208.27</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2169197396963085</v>
+        <v>0.9402413609266747</v>
       </c>
       <c r="E20" t="n">
-        <v>1.324159418408399</v>
+        <v>-0.1647446457990198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01526826409688742</v>
+        <v>0.00165530811692316</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B21" t="n">
-        <v>13.53</v>
+        <v>216.85</v>
       </c>
       <c r="C21" t="n">
-        <v>13.86</v>
+        <v>218.16</v>
       </c>
       <c r="D21" t="n">
-        <v>2.439024390243905</v>
+        <v>0.6041042195065627</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2323480056796168</v>
+        <v>0.5412231643514342</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01765713500826982</v>
+        <v>0.001942313994624412</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46017.20833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>223.67</v>
+        <v>216.44</v>
       </c>
       <c r="C22" t="n">
-        <v>224.31</v>
+        <v>217.25</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2861358250994872</v>
+        <v>0.3742376640177403</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.223625140291818</v>
+        <v>-0.5393743257820827</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0184461629416055</v>
+        <v>0.005910319484607185</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B23" t="n">
-        <v>222.82</v>
+        <v>227.38</v>
       </c>
       <c r="C23" t="n">
-        <v>226.82</v>
+        <v>234.53</v>
       </c>
       <c r="D23" t="n">
-        <v>1.79517099003681</v>
+        <v>3.144515788547797</v>
       </c>
       <c r="E23" t="n">
-        <v>2.161933022467144</v>
+        <v>-0.3041144901610005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02206694178925772</v>
+        <v>0.008458796124143353</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>220.18</v>
+        <v>3.31</v>
       </c>
       <c r="C24" t="n">
-        <v>223.93</v>
+        <v>3.32</v>
       </c>
       <c r="D24" t="n">
-        <v>1.703151966572802</v>
+        <v>0.302114803625364</v>
       </c>
       <c r="E24" t="n">
-        <v>1.403678606001946</v>
+        <v>-1.451540866458234</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0420326996839141</v>
+        <v>0.03408136219155311</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46013.20833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>224.13</v>
+        <v>3.27</v>
       </c>
       <c r="C25" t="n">
-        <v>220.08</v>
+        <v>3.34</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.806987016463657</v>
+        <v>2.14067278287462</v>
       </c>
       <c r="E25" t="n">
-        <v>1.324181919023837</v>
+        <v>0.6559601900022693</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0241713040381103</v>
+        <v>0.02569342275705089</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B26" t="n">
-        <v>46.14</v>
+        <v>3.32</v>
       </c>
       <c r="C26" t="n">
-        <v>45.49</v>
+        <v>3.39</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.408755960121366</v>
+        <v>2.108433734939763</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07279344858963643</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02474334301366932</v>
+        <v>0.01845748632403599</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B27" t="n">
-        <v>45.49</v>
+        <v>3.33</v>
       </c>
       <c r="C27" t="n">
-        <v>46.56</v>
+        <v>3.36</v>
       </c>
       <c r="D27" t="n">
-        <v>2.352165311057375</v>
+        <v>0.9009009009008917</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.6364793598836127</v>
+        <v>2.102437933348233</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01481549408711003</v>
+        <v>0.01213861682360728</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B28" t="n">
-        <v>53.65</v>
+        <v>3.49</v>
       </c>
       <c r="C28" t="n">
-        <v>53.63</v>
+        <v>3.44</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03727865796830931</v>
+        <v>-1.432664756447</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5412231643514342</v>
+        <v>3.14646576556612</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003291483813932516</v>
+        <v>0.005727000037031971</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46013.20833333334</v>
       </c>
       <c r="B29" t="n">
-        <v>53.63</v>
+        <v>18.98</v>
       </c>
       <c r="C29" t="n">
-        <v>54.25</v>
+        <v>18.93</v>
       </c>
       <c r="D29" t="n">
-        <v>1.156069364161838</v>
+        <v>-0.2634351949420521</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1973802260900714</v>
+        <v>-0.4809695133497605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005785018223197436</v>
+        <v>0.005847222114956363</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
@@ -1179,23 +1179,23 @@
         <v>46020.20833333334</v>
       </c>
       <c r="B30" t="n">
-        <v>53.77</v>
+        <v>19.25</v>
       </c>
       <c r="C30" t="n">
-        <v>54.38</v>
+        <v>19.3</v>
       </c>
       <c r="D30" t="n">
-        <v>1.134461595685332</v>
+        <v>0.2597402597402709</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.2530730296457007</v>
+        <v>-0.3786430046660905</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00345418300946021</v>
+        <v>0.001457603922793593</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
@@ -1204,248 +1204,248 @@
         <v>46022.20833333334</v>
       </c>
       <c r="B31" t="n">
-        <v>53.14</v>
+        <v>19.11</v>
       </c>
       <c r="C31" t="n">
-        <v>56.54</v>
+        <v>19.5</v>
       </c>
       <c r="D31" t="n">
-        <v>6.398193451260825</v>
+        <v>2.040816326530615</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2921307285010055</v>
+        <v>1.39174258577246</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01537227257585294</v>
+        <v>0.0001697409883407719</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B32" t="n">
-        <v>61.09</v>
+        <v>20.4</v>
       </c>
       <c r="C32" t="n">
-        <v>63.67</v>
+        <v>20.69</v>
       </c>
       <c r="D32" t="n">
-        <v>4.223277132100178</v>
+        <v>1.421568627450998</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3041144901610005</v>
+        <v>0.6580177216136462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03151390120308795</v>
+        <v>9.834954294563047e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BAX</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B33" t="n">
-        <v>2.42</v>
+        <v>13.83</v>
       </c>
       <c r="C33" t="n">
-        <v>2.48</v>
+        <v>13.86</v>
       </c>
       <c r="D33" t="n">
-        <v>2.479338842975198</v>
+        <v>0.2169197396963085</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7619901389511519</v>
+        <v>1.324159418408399</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01361748878088753</v>
+        <v>0.01526826409688742</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AES</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B34" t="n">
-        <v>2.47</v>
+        <v>13.53</v>
       </c>
       <c r="C34" t="n">
-        <v>2.51</v>
+        <v>13.86</v>
       </c>
       <c r="D34" t="n">
-        <v>1.61943319838056</v>
+        <v>2.439024390243905</v>
       </c>
       <c r="E34" t="n">
-        <v>2.716319824753555</v>
+        <v>0.2323480056796168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02102437933348233</v>
+        <v>0.01765713500826982</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AES</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B35" t="n">
-        <v>2.51</v>
+        <v>223.67</v>
       </c>
       <c r="C35" t="n">
-        <v>2.51</v>
+        <v>224.31</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.2861358250994872</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.66581360631265</v>
+        <v>-2.223625140291818</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01096886626372995</v>
+        <v>0.0184461629416055</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>16.7</v>
+        <v>222.82</v>
       </c>
       <c r="C36" t="n">
-        <v>16.93</v>
+        <v>226.82</v>
       </c>
       <c r="D36" t="n">
-        <v>1.377245508982039</v>
+        <v>1.79517099003681</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3153492836087013</v>
+        <v>2.161933022467144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03682760543308694</v>
+        <v>0.02206694178925772</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B37" t="n">
-        <v>16.06</v>
+        <v>220.18</v>
       </c>
       <c r="C37" t="n">
-        <v>17.04</v>
+        <v>223.93</v>
       </c>
       <c r="D37" t="n">
-        <v>6.102117061021173</v>
+        <v>1.703151966572802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2217602217602144</v>
+        <v>1.403678606001946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03830654995901261</v>
+        <v>0.0420326996839141</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B38" t="n">
-        <v>17.94</v>
+        <v>224.13</v>
       </c>
       <c r="C38" t="n">
-        <v>17.9</v>
+        <v>220.08</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2229654403567594</v>
+        <v>-1.806987016463657</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.5628199003617</v>
+        <v>1.324181919023837</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0408483918627115</v>
+        <v>0.0241713040381103</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ABBV</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B39" t="n">
-        <v>8.23</v>
+        <v>5.86</v>
       </c>
       <c r="C39" t="n">
-        <v>8.25</v>
+        <v>5.44</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2430133657351119</v>
+        <v>-7.167235494880542</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.145165664332314</v>
+        <v>-0.01830161054172663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001211221260844941</v>
+        <v>0.01206066703767972</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B40" t="n">
-        <v>8.26</v>
+        <v>5.4</v>
       </c>
       <c r="C40" t="n">
-        <v>8.32</v>
+        <v>5.84</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7263922518159882</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009452093638739889</v>
+        <v>0.2921307285010055</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004544261839264818</v>
+        <v>0.01075158983821534</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
@@ -1454,823 +1454,823 @@
         <v>46027.20833333334</v>
       </c>
       <c r="B41" t="n">
-        <v>8.460000000000001</v>
+        <v>5.88</v>
       </c>
       <c r="C41" t="n">
-        <v>8.57</v>
+        <v>6.41</v>
       </c>
       <c r="D41" t="n">
-        <v>1.300236406619382</v>
+        <v>9.013605442176864</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5929228725927382</v>
+        <v>0.4810261892036261</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0006757376935631054</v>
+        <v>0.01499667073161604</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B42" t="n">
-        <v>124.54</v>
+        <v>46.14</v>
       </c>
       <c r="C42" t="n">
-        <v>124.81</v>
+        <v>45.49</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2167978159627326</v>
+        <v>-1.408755960121366</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2921348314606775</v>
+        <v>0.07279344858963643</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01183116739523038</v>
+        <v>0.02474334301366932</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>124.57</v>
+        <v>45.49</v>
       </c>
       <c r="C43" t="n">
-        <v>125.78</v>
+        <v>46.56</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9713414144657762</v>
+        <v>2.352165311057375</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7619901389511519</v>
+        <v>-0.6364793598836127</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01166503078691861</v>
+        <v>0.01481549408711003</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>126.45</v>
+        <v>53.65</v>
       </c>
       <c r="C44" t="n">
-        <v>127.78</v>
+        <v>53.63</v>
       </c>
       <c r="D44" t="n">
-        <v>1.051799130090947</v>
+        <v>-0.03727865796830931</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.66581360631265</v>
+        <v>0.5412231643514342</v>
       </c>
       <c r="F44" t="n">
-        <v>0.008965275709488907</v>
+        <v>0.003291483813932516</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B45" t="n">
-        <v>11.2</v>
+        <v>53.63</v>
       </c>
       <c r="C45" t="n">
-        <v>11.1</v>
+        <v>54.25</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8928571428571397</v>
+        <v>1.156069364161838</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.223625140291818</v>
+        <v>-0.1973802260900714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0089193243721436</v>
+        <v>0.005785018223197436</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>11.27</v>
+        <v>53.77</v>
       </c>
       <c r="C46" t="n">
-        <v>11.24</v>
+        <v>54.38</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2661934338952898</v>
+        <v>1.134461595685332</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3872752420470249</v>
+        <v>-0.2530730296457007</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003552482889531472</v>
+        <v>0.00345418300946021</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46013.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>11.24</v>
+        <v>53.14</v>
       </c>
       <c r="C47" t="n">
-        <v>11.27</v>
+        <v>56.54</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2669039145907437</v>
+        <v>6.398193451260825</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5442270597960874</v>
+        <v>0.2921307285010055</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006534686759423147</v>
+        <v>0.01537227257585294</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>11.27</v>
+        <v>61.09</v>
       </c>
       <c r="C48" t="n">
-        <v>11.28</v>
+        <v>63.67</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08873114463177068</v>
+        <v>4.223277132100178</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2398081534772389</v>
+        <v>-0.3041144901610005</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002773231452053437</v>
+        <v>0.03151390120308795</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>11.28</v>
+        <v>2.42</v>
       </c>
       <c r="C49" t="n">
-        <v>11.43</v>
+        <v>2.48</v>
       </c>
       <c r="D49" t="n">
-        <v>1.329787234042556</v>
+        <v>2.479338842975198</v>
       </c>
       <c r="E49" t="n">
-        <v>0.157211209842778</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001510770088454683</v>
+        <v>0.01361748878088753</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>15.58</v>
+        <v>2.47</v>
       </c>
       <c r="C50" t="n">
-        <v>15.3</v>
+        <v>2.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.797175866495504</v>
+        <v>1.61943319838056</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1827125790583306</v>
+        <v>2.716319824753555</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001747716901832952</v>
+        <v>0.02102437933348233</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B51" t="n">
-        <v>14.87</v>
+        <v>2.51</v>
       </c>
       <c r="C51" t="n">
-        <v>15.16</v>
+        <v>2.51</v>
       </c>
       <c r="D51" t="n">
-        <v>1.95023537323471</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>2.161933022467144</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007288755728653173</v>
+        <v>0.01096886626372995</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B52" t="n">
-        <v>15.16</v>
+        <v>16.7</v>
       </c>
       <c r="C52" t="n">
-        <v>15.35</v>
+        <v>16.93</v>
       </c>
       <c r="D52" t="n">
-        <v>1.253298153034299</v>
+        <v>1.377245508982039</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3872752420470249</v>
+        <v>-0.3153492836087013</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002116976492324341</v>
+        <v>0.03682760543308694</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B53" t="n">
-        <v>15.55</v>
+        <v>16.06</v>
       </c>
       <c r="C53" t="n">
-        <v>15.72</v>
+        <v>17.04</v>
       </c>
       <c r="D53" t="n">
-        <v>1.09324758842444</v>
+        <v>6.102117061021173</v>
       </c>
       <c r="E53" t="n">
-        <v>0.157211209842778</v>
+        <v>0.2217602217602144</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001110251528333217</v>
+        <v>0.03830654995901261</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B54" t="n">
-        <v>17.33</v>
+        <v>17.94</v>
       </c>
       <c r="C54" t="n">
-        <v>17.64</v>
+        <v>17.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1.78880553952685</v>
+        <v>-0.2229654403567594</v>
       </c>
       <c r="E54" t="n">
-        <v>1.324181919023837</v>
+        <v>-1.5628199003617</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0008303708034206325</v>
+        <v>0.0408483918627115</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>126.51</v>
+        <v>8.23</v>
       </c>
       <c r="C55" t="n">
-        <v>129.61</v>
+        <v>8.25</v>
       </c>
       <c r="D55" t="n">
-        <v>2.450399177930596</v>
+        <v>0.2430133657351119</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7548392322021424</v>
+        <v>-0.145165664332314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.009299739382311545</v>
+        <v>0.001211221260844941</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>139.88</v>
+        <v>8.26</v>
       </c>
       <c r="C56" t="n">
-        <v>141.38</v>
+        <v>8.32</v>
       </c>
       <c r="D56" t="n">
-        <v>1.072347726622813</v>
+        <v>0.7263922518159882</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5929228725927382</v>
+        <v>0.009452093638739889</v>
       </c>
       <c r="F56" t="n">
-        <v>0.005404234662526708</v>
+        <v>0.004544261839264818</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B57" t="n">
-        <v>138.91</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>136.25</v>
+        <v>8.57</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.914908933842052</v>
+        <v>1.300236406619382</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.01734550672533031</v>
+        <v>0.5929228725927382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01426415806101744</v>
+        <v>0.0006757376935631054</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B58" t="n">
-        <v>136.25</v>
+        <v>124.54</v>
       </c>
       <c r="C58" t="n">
-        <v>140.16</v>
+        <v>124.81</v>
       </c>
       <c r="D58" t="n">
-        <v>2.869724770642201</v>
+        <v>0.2167978159627326</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6702835693782827</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01897563427116722</v>
+        <v>0.01183116739523038</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B59" t="n">
-        <v>14.05</v>
+        <v>124.57</v>
       </c>
       <c r="C59" t="n">
-        <v>13.77</v>
+        <v>125.78</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.992882562277587</v>
+        <v>0.9713414144657762</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.05760067026233662</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02832772601794331</v>
+        <v>0.01166503078691861</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>13.48</v>
+        <v>126.45</v>
       </c>
       <c r="C60" t="n">
-        <v>13.75</v>
+        <v>127.78</v>
       </c>
       <c r="D60" t="n">
-        <v>2.002967359050434</v>
+        <v>1.051799130090947</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9529294727472548</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01742835032014023</v>
+        <v>0.008965275709488907</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>13.66</v>
+        <v>23.84</v>
       </c>
       <c r="C61" t="n">
-        <v>13.83</v>
+        <v>24.34</v>
       </c>
       <c r="D61" t="n">
-        <v>1.244509516837478</v>
+        <v>2.097315436241609</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7937326048860882</v>
+        <v>-0.7031421665568027</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02306445338412733</v>
+        <v>0.004677666040279527</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>2.06</v>
+        <v>24.37</v>
       </c>
       <c r="C62" t="n">
-        <v>2.06</v>
+        <v>24.79</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1.723430447271235</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1827125790583306</v>
+        <v>-1.451540866458234</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01402307956933357</v>
+        <v>0.01760685098829495</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.94</v>
+        <v>25.48</v>
       </c>
       <c r="C63" t="n">
-        <v>1.97</v>
+        <v>25.63</v>
       </c>
       <c r="D63" t="n">
-        <v>1.546391752577314</v>
+        <v>0.5886970172684469</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3153492836087013</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01072422930319361</v>
+        <v>0.0006377700800463959</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B64" t="n">
-        <v>1.7</v>
+        <v>25.48</v>
       </c>
       <c r="C64" t="n">
-        <v>1.66</v>
+        <v>25.59</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.352941176470591</v>
+        <v>0.4317111459968492</v>
       </c>
       <c r="E64" t="n">
-        <v>1.324181919023837</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01294322956781158</v>
+        <v>0.01960327254444894</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B65" t="n">
-        <v>8.140000000000001</v>
+        <v>25.59</v>
       </c>
       <c r="C65" t="n">
-        <v>8.130000000000001</v>
+        <v>25.45</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1228501228501155</v>
+        <v>-0.5470887065259888</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.759464973928814</v>
+        <v>-0.5560498220640531</v>
       </c>
       <c r="F65" t="n">
-        <v>0.006010592953868965</v>
+        <v>0.003302789929543026</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B66" t="n">
-        <v>8.08</v>
+        <v>26.32</v>
       </c>
       <c r="C66" t="n">
-        <v>8.140000000000001</v>
+        <v>26.25</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7425742574257432</v>
+        <v>-0.2659574468085069</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3294331477905366</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003575753278979077</v>
+        <v>0.016798514946192</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>8.050000000000001</v>
+        <v>25.83</v>
       </c>
       <c r="C67" t="n">
-        <v>8.07</v>
+        <v>26.07</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248447204968949</v>
+        <v>0.9291521486643584</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7967220578192657</v>
+        <v>3.14646576556612</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001328404385800175</v>
+        <v>0.004825591586327893</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>8.199999999999999</v>
+        <v>26.07</v>
       </c>
       <c r="C68" t="n">
-        <v>8.25</v>
+        <v>25.96</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6097560975609762</v>
+        <v>-0.421940928270037</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5011960359949996</v>
+        <v>0.2577873254565155</v>
       </c>
       <c r="F68" t="n">
-        <v>0.005843263061411585</v>
+        <v>0.02217313616901762</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B69" t="n">
-        <v>8.529999999999999</v>
+        <v>19.64</v>
       </c>
       <c r="C69" t="n">
-        <v>8.27</v>
+        <v>19.67</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.048065650644782</v>
+        <v>0.1527494908350358</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3831417624520994</v>
+        <v>-0.0910332271279013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01886764251108142</v>
+        <v>0.009548785978527485</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B70" t="n">
-        <v>7.83</v>
+        <v>19.62</v>
       </c>
       <c r="C70" t="n">
-        <v>7.89</v>
+        <v>19.79</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7662835249041988</v>
+        <v>0.8664627930682789</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5560498220640531</v>
+        <v>-0.759464973928814</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01898353775314787</v>
+        <v>0.007325541132559787</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B71" t="n">
-        <v>8.9</v>
+        <v>20.19</v>
       </c>
       <c r="C71" t="n">
-        <v>9.24</v>
+        <v>20.08</v>
       </c>
       <c r="D71" t="n">
-        <v>3.820224719101128</v>
+        <v>-0.5448241703813972</v>
       </c>
       <c r="E71" t="n">
-        <v>3.14646576556612</v>
+        <v>-0.7967220578192657</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02038163075934196</v>
+        <v>0.009362963348304332</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>122.36</v>
+        <v>21.95</v>
       </c>
       <c r="C72" t="n">
-        <v>124.62</v>
+        <v>22.77</v>
       </c>
       <c r="D72" t="n">
-        <v>1.847008826413865</v>
+        <v>3.735763097949896</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1647446457990198</v>
+        <v>-0.5011960359949996</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02970678013655526</v>
+        <v>0.009926747634914301</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46013.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>130.73</v>
+        <v>55.97</v>
       </c>
       <c r="C73" t="n">
-        <v>131.32</v>
+        <v>56.25</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4513118641474856</v>
+        <v>0.5002680007146765</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1988430947216235</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01172710984842917</v>
+        <v>0.004949007769743607</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
@@ -2279,21 +2279,896 @@
         <v>46021.20833333334</v>
       </c>
       <c r="B74" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="C74" t="n">
+        <v>55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.506512301013029</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.5560498220640531</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.008884580702971379</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46024.20833333334</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.680071492403923</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.716319824753555</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.003751652060755006</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6328001406222583</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.66581360631265</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01036248332349632</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B77" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>91.88</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4921798096904517</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3335071996459549</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01366498228680424</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B78" t="n">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.4240201696080748</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.7265877287405909</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01161649391471187</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46028.20833333334</v>
+      </c>
+      <c r="B79" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C79" t="n">
+        <v>108</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4.803493449781659</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.3206488423633802</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01382371221490408</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46007.20833333334</v>
+      </c>
+      <c r="B80" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.8928571428571397</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-2.223625140291818</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0089193243721436</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C81" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.2661934338952898</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3872752420470249</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.003552482889531472</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.2669039145907437</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5442270597960874</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.006534686759423147</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46014.20833333334</v>
+      </c>
+      <c r="B83" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C83" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.08873114463177068</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2398081534772389</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.002773231452053437</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.329787234042556</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.157211209842778</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.001510770088454683</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B85" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-1.797175866495504</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1827125790583306</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001747716901832952</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B86" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.95023537323471</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.161933022467144</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.007288755728653173</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46010.20833333334</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.253298153034299</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3872752420470249</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.002116976492324341</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.09324758842444</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.157211209842778</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.001110251528333217</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B89" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="C89" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.78880553952685</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0008303708034206325</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B90" t="n">
+        <v>126.51</v>
+      </c>
+      <c r="C90" t="n">
+        <v>129.61</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.450399177930596</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7548392322021424</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.009299739382311545</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B91" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="C91" t="n">
+        <v>141.38</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.072347726622813</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5929228725927382</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.005404234662526708</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B92" t="n">
+        <v>138.91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-1.914908933842052</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.01734550672533031</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01426415806101744</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B93" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="C93" t="n">
+        <v>140.16</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.869724770642201</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6702835693782827</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01897563427116722</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B94" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.992882562277587</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.05760067026233662</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.02832772601794331</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B95" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C95" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.002967359050434</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9529294727472548</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01742835032014023</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.244509516837478</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7937326048860882</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02306445338412733</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1827125790583306</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.01402307956933357</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.546391752577314</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.3153492836087013</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.01072422930319361</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2.352941176470591</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01294322956781158</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.1228501228501155</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.759464973928814</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.006010592953868965</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7425742574257432</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.3294331477905366</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.003575753278979077</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.248447204968949</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.7967220578192657</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.001328404385800175</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6097560975609762</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.5011960359949996</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.005843263061411585</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-3.048065650644782</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.3831417624520994</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.01886764251108142</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7662835249041988</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.5560498220640531</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.01898353775314787</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.820224719101128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.14646576556612</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.02038163075934196</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>122.36</v>
+      </c>
+      <c r="C107" t="n">
+        <v>124.62</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.847008826413865</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.1647446457990198</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.02970678013655526</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46013.20833333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>130.73</v>
+      </c>
+      <c r="C108" t="n">
+        <v>131.32</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4513118641474856</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1988430947216235</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.01172710984842917</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46021.20833333334</v>
+      </c>
+      <c r="B109" t="n">
         <v>132.44</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C109" t="n">
         <v>131.03</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D109" t="n">
         <v>-1.064633041377228</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E109" t="n">
         <v>-0.7430228343602741</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F109" t="n">
         <v>0.01021619478740443</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>ANET</t>
         </is>

--- a/Test_Results_01-10-2026.xlsx
+++ b/Test_Results_01-10-2026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,172 +1401,172 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B39" t="n">
-        <v>5.86</v>
+        <v>51.2</v>
       </c>
       <c r="C39" t="n">
-        <v>5.44</v>
+        <v>52.41</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.167235494880542</v>
+        <v>2.363281249999982</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.01830161054172663</v>
+        <v>-0.3313658486072235</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01206066703767972</v>
+        <v>0.008443342850766533</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BBAI</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B40" t="n">
-        <v>5.4</v>
+        <v>54.28</v>
       </c>
       <c r="C40" t="n">
-        <v>5.84</v>
+        <v>54.71</v>
       </c>
       <c r="D40" t="n">
-        <v>8.148148148148149</v>
+        <v>0.792188651436998</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2921307285010055</v>
+        <v>0.5054715997915515</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01075158983821534</v>
+        <v>0.007577784292641998</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BBAI</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B41" t="n">
-        <v>5.88</v>
+        <v>54.11</v>
       </c>
       <c r="C41" t="n">
-        <v>6.41</v>
+        <v>54.21</v>
       </c>
       <c r="D41" t="n">
-        <v>9.013605442176864</v>
+        <v>0.1848087229717299</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4810261892036261</v>
+        <v>-0.1142323069733608</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01499667073161604</v>
+        <v>0.008714274170163683</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BBAI</t>
+          <t>BMY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B42" t="n">
-        <v>46.14</v>
+        <v>5.86</v>
       </c>
       <c r="C42" t="n">
-        <v>45.49</v>
+        <v>5.44</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.408755960121366</v>
+        <v>-7.167235494880542</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07279344858963643</v>
+        <v>-0.01830161054172663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02474334301366932</v>
+        <v>0.01206066703767972</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B43" t="n">
-        <v>45.49</v>
+        <v>5.4</v>
       </c>
       <c r="C43" t="n">
-        <v>46.56</v>
+        <v>5.84</v>
       </c>
       <c r="D43" t="n">
-        <v>2.352165311057375</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.6364793598836127</v>
+        <v>0.2921307285010055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01481549408711003</v>
+        <v>0.01075158983821534</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B44" t="n">
-        <v>53.65</v>
+        <v>5.88</v>
       </c>
       <c r="C44" t="n">
-        <v>53.63</v>
+        <v>6.41</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03727865796830931</v>
+        <v>9.013605442176864</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5412231643514342</v>
+        <v>0.4810261892036261</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003291483813932516</v>
+        <v>0.01499667073161604</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBAI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B45" t="n">
-        <v>53.63</v>
+        <v>46.14</v>
       </c>
       <c r="C45" t="n">
-        <v>54.25</v>
+        <v>45.49</v>
       </c>
       <c r="D45" t="n">
-        <v>1.156069364161838</v>
+        <v>-1.408755960121366</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1973802260900714</v>
+        <v>0.07279344858963643</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005785018223197436</v>
+        <v>0.02474334301366932</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1576,22 +1576,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>53.77</v>
+        <v>45.49</v>
       </c>
       <c r="C46" t="n">
-        <v>54.38</v>
+        <v>46.56</v>
       </c>
       <c r="D46" t="n">
-        <v>1.134461595685332</v>
+        <v>2.352165311057375</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2530730296457007</v>
+        <v>-0.6364793598836127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00345418300946021</v>
+        <v>0.01481549408711003</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1601,22 +1601,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B47" t="n">
-        <v>53.14</v>
+        <v>53.65</v>
       </c>
       <c r="C47" t="n">
-        <v>56.54</v>
+        <v>53.63</v>
       </c>
       <c r="D47" t="n">
-        <v>6.398193451260825</v>
+        <v>-0.03727865796830931</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2921307285010055</v>
+        <v>0.5412231643514342</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01537227257585294</v>
+        <v>0.003291483813932516</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1626,22 +1626,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>61.09</v>
+        <v>53.63</v>
       </c>
       <c r="C48" t="n">
-        <v>63.67</v>
+        <v>54.25</v>
       </c>
       <c r="D48" t="n">
-        <v>4.223277132100178</v>
+        <v>1.156069364161838</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3041144901610005</v>
+        <v>-0.1973802260900714</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03151390120308795</v>
+        <v>0.005785018223197436</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1654,373 +1654,373 @@
         <v>46020.20833333334</v>
       </c>
       <c r="B49" t="n">
-        <v>2.42</v>
+        <v>53.77</v>
       </c>
       <c r="C49" t="n">
-        <v>2.48</v>
+        <v>54.38</v>
       </c>
       <c r="D49" t="n">
-        <v>2.479338842975198</v>
+        <v>1.134461595685332</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7619901389511519</v>
+        <v>-0.2530730296457007</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01361748878088753</v>
+        <v>0.00345418300946021</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B50" t="n">
-        <v>2.47</v>
+        <v>53.14</v>
       </c>
       <c r="C50" t="n">
-        <v>2.51</v>
+        <v>56.54</v>
       </c>
       <c r="D50" t="n">
-        <v>1.61943319838056</v>
+        <v>6.398193451260825</v>
       </c>
       <c r="E50" t="n">
-        <v>2.716319824753555</v>
+        <v>0.2921307285010055</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02102437933348233</v>
+        <v>0.01537227257585294</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B51" t="n">
-        <v>2.51</v>
+        <v>61.09</v>
       </c>
       <c r="C51" t="n">
-        <v>2.51</v>
+        <v>63.67</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4.223277132100178</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.66581360631265</v>
+        <v>-0.3041144901610005</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01096886626372995</v>
+        <v>0.03151390120308795</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B52" t="n">
-        <v>16.7</v>
+        <v>52.94</v>
       </c>
       <c r="C52" t="n">
-        <v>16.93</v>
+        <v>52.58</v>
       </c>
       <c r="D52" t="n">
-        <v>1.377245508982039</v>
+        <v>-0.6800151114469188</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3153492836087013</v>
+        <v>0.06869704602703308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03682760543308694</v>
+        <v>0.01270705604253897</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CARR</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B53" t="n">
-        <v>16.06</v>
+        <v>52.58</v>
       </c>
       <c r="C53" t="n">
-        <v>17.04</v>
+        <v>53.44</v>
       </c>
       <c r="D53" t="n">
-        <v>6.102117061021173</v>
+        <v>1.635602890833021</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2217602217602144</v>
+        <v>0.5491990846681727</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03830654995901261</v>
+        <v>0.007487121574739519</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CARR</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B54" t="n">
-        <v>17.94</v>
+        <v>52.4</v>
       </c>
       <c r="C54" t="n">
-        <v>17.9</v>
+        <v>53.2</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2229654403567594</v>
+        <v>1.526717557251911</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.5628199003617</v>
+        <v>0.4783599088838297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0408483918627115</v>
+        <v>0.01855074557303238</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CARR</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46013.20833333334</v>
       </c>
       <c r="B55" t="n">
-        <v>8.23</v>
+        <v>53.2</v>
       </c>
       <c r="C55" t="n">
-        <v>8.25</v>
+        <v>53.34</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2430133657351119</v>
+        <v>0.263157894736854</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.145165664332314</v>
+        <v>0.1602564102564097</v>
       </c>
       <c r="F55" t="n">
-        <v>0.001211221260844941</v>
+        <v>0.008430518250045926</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>CARR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B56" t="n">
-        <v>8.26</v>
+        <v>52.57</v>
       </c>
       <c r="C56" t="n">
-        <v>8.32</v>
+        <v>53.86</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7263922518159882</v>
+        <v>2.45387102910406</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009452093638739889</v>
+        <v>-0.5011960359949996</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004544261839264818</v>
+        <v>0.02322644063150503</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>CARR</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B57" t="n">
-        <v>8.460000000000001</v>
+        <v>2.42</v>
       </c>
       <c r="C57" t="n">
-        <v>8.57</v>
+        <v>2.48</v>
       </c>
       <c r="D57" t="n">
-        <v>1.300236406619382</v>
+        <v>2.479338842975198</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5929228725927382</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0006757376935631054</v>
+        <v>0.01361748878088753</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B58" t="n">
-        <v>124.54</v>
+        <v>2.47</v>
       </c>
       <c r="C58" t="n">
-        <v>124.81</v>
+        <v>2.51</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2167978159627326</v>
+        <v>1.61943319838056</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2921348314606775</v>
+        <v>2.716319824753555</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01183116739523038</v>
+        <v>0.02102437933348233</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B59" t="n">
-        <v>124.57</v>
+        <v>2.51</v>
       </c>
       <c r="C59" t="n">
-        <v>125.78</v>
+        <v>2.51</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9713414144657762</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7619901389511519</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01166503078691861</v>
+        <v>0.01096886626372995</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ABEV</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B60" t="n">
-        <v>126.45</v>
+        <v>91.75</v>
       </c>
       <c r="C60" t="n">
-        <v>127.78</v>
+        <v>92.58</v>
       </c>
       <c r="D60" t="n">
-        <v>1.051799130090947</v>
+        <v>0.9046321525885581</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.66581360631265</v>
+        <v>-1.079358065992331</v>
       </c>
       <c r="F60" t="n">
-        <v>0.008965275709488907</v>
+        <v>0.0127000230984905</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46003.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>23.84</v>
+        <v>95.61</v>
       </c>
       <c r="C61" t="n">
-        <v>24.34</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>2.097315436241609</v>
+        <v>0.8576508733396215</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7031421665568027</v>
+        <v>0.3457836700873296</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004677666040279527</v>
+        <v>0.01412505841220835</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B62" t="n">
-        <v>24.37</v>
+        <v>96.09</v>
       </c>
       <c r="C62" t="n">
-        <v>24.79</v>
+        <v>96.13</v>
       </c>
       <c r="D62" t="n">
-        <v>1.723430447271235</v>
+        <v>0.04162764075346104</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.451540866458234</v>
+        <v>0.3335071996459549</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01760685098829495</v>
+        <v>0.008194541214937123</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B63" t="n">
-        <v>25.48</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>25.63</v>
+        <v>95.48</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5886970172684469</v>
+        <v>0.8130081300813163</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2921348314606775</v>
+        <v>0.662104090402682</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0006377700800463959</v>
+        <v>0.008577755159341893</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>BSX</t>
         </is>
       </c>
     </row>
@@ -2029,673 +2029,673 @@
         <v>46020.20833333334</v>
       </c>
       <c r="B64" t="n">
-        <v>25.48</v>
+        <v>16.7</v>
       </c>
       <c r="C64" t="n">
-        <v>25.59</v>
+        <v>16.93</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4317111459968492</v>
+        <v>1.377245508982039</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7619901389511519</v>
+        <v>-0.3153492836087013</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01960327254444894</v>
+        <v>0.03682760543308694</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B65" t="n">
-        <v>25.59</v>
+        <v>16.06</v>
       </c>
       <c r="C65" t="n">
-        <v>25.45</v>
+        <v>17.04</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.5470887065259888</v>
+        <v>6.102117061021173</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5560498220640531</v>
+        <v>0.2217602217602144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003302789929543026</v>
+        <v>0.03830654995901261</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B66" t="n">
-        <v>26.32</v>
+        <v>17.94</v>
       </c>
       <c r="C66" t="n">
-        <v>26.25</v>
+        <v>17.9</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.2659574468085069</v>
+        <v>-0.2229654403567594</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.66581360631265</v>
+        <v>-1.5628199003617</v>
       </c>
       <c r="F66" t="n">
-        <v>0.016798514946192</v>
+        <v>0.0408483918627115</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AG</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B67" t="n">
-        <v>25.83</v>
+        <v>8.23</v>
       </c>
       <c r="C67" t="n">
-        <v>26.07</v>
+        <v>8.25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9291521486643584</v>
+        <v>0.2430133657351119</v>
       </c>
       <c r="E67" t="n">
-        <v>3.14646576556612</v>
+        <v>-0.145165664332314</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004825591586327893</v>
+        <v>0.001211221260844941</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B68" t="n">
-        <v>26.07</v>
+        <v>8.26</v>
       </c>
       <c r="C68" t="n">
-        <v>25.96</v>
+        <v>8.32</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.421940928270037</v>
+        <v>0.7263922518159882</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2577873254565155</v>
+        <v>0.009452093638739889</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02217313616901762</v>
+        <v>0.004544261839264818</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B69" t="n">
-        <v>19.64</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>19.67</v>
+        <v>8.57</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1527494908350358</v>
+        <v>1.300236406619382</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.0910332271279013</v>
+        <v>0.5929228725927382</v>
       </c>
       <c r="F69" t="n">
-        <v>0.009548785978527485</v>
+        <v>0.0006757376935631054</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>AMCR</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B70" t="n">
-        <v>19.62</v>
+        <v>124.54</v>
       </c>
       <c r="C70" t="n">
-        <v>19.79</v>
+        <v>124.81</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8664627930682789</v>
+        <v>0.2167978159627326</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.759464973928814</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F70" t="n">
-        <v>0.007325541132559787</v>
+        <v>0.01183116739523038</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B71" t="n">
-        <v>20.19</v>
+        <v>124.57</v>
       </c>
       <c r="C71" t="n">
-        <v>20.08</v>
+        <v>125.78</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5448241703813972</v>
+        <v>0.9713414144657762</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7967220578192657</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F71" t="n">
-        <v>0.009362963348304332</v>
+        <v>0.01166503078691861</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B72" t="n">
-        <v>21.95</v>
+        <v>126.45</v>
       </c>
       <c r="C72" t="n">
-        <v>22.77</v>
+        <v>127.78</v>
       </c>
       <c r="D72" t="n">
-        <v>3.735763097949896</v>
+        <v>1.051799130090947</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.5011960359949996</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F72" t="n">
-        <v>0.009926747634914301</v>
+        <v>0.008965275709488907</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46003.20833333334</v>
       </c>
       <c r="B73" t="n">
-        <v>55.97</v>
+        <v>23.84</v>
       </c>
       <c r="C73" t="n">
-        <v>56.25</v>
+        <v>24.34</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5002680007146765</v>
+        <v>2.097315436241609</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.2921348314606775</v>
+        <v>-0.7031421665568027</v>
       </c>
       <c r="F73" t="n">
-        <v>0.004949007769743607</v>
+        <v>0.004677666040279527</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B74" t="n">
-        <v>55.28</v>
+        <v>24.37</v>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
+        <v>24.79</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.506512301013029</v>
+        <v>1.723430447271235</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5560498220640531</v>
+        <v>-1.451540866458234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.008884580702971379</v>
+        <v>0.01760685098829495</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46024.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B75" t="n">
-        <v>55.95</v>
+        <v>25.48</v>
       </c>
       <c r="C75" t="n">
-        <v>56.89</v>
+        <v>25.63</v>
       </c>
       <c r="D75" t="n">
-        <v>1.680071492403923</v>
+        <v>0.5886970172684469</v>
       </c>
       <c r="E75" t="n">
-        <v>2.716319824753555</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003751652060755006</v>
+        <v>0.0006377700800463959</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46027.20833333334</v>
+        <v>46020.20833333334</v>
       </c>
       <c r="B76" t="n">
-        <v>56.89</v>
+        <v>25.48</v>
       </c>
       <c r="C76" t="n">
-        <v>57.25</v>
+        <v>25.59</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6328001406222583</v>
+        <v>0.4317111459968492</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.66581360631265</v>
+        <v>0.7619901389511519</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01036248332349632</v>
+        <v>0.01960327254444894</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B77" t="n">
-        <v>91.43000000000001</v>
+        <v>25.59</v>
       </c>
       <c r="C77" t="n">
-        <v>91.88</v>
+        <v>25.45</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4921798096904517</v>
+        <v>-0.5470887065259888</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3335071996459549</v>
+        <v>-0.5560498220640531</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01366498228680424</v>
+        <v>0.003302789929543026</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46027.20833333334</v>
       </c>
       <c r="B78" t="n">
-        <v>87.26000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="C78" t="n">
-        <v>86.89</v>
+        <v>26.25</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4240201696080748</v>
+        <v>-0.2659574468085069</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7265877287405909</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01161649391471187</v>
+        <v>0.016798514946192</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46028.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B79" t="n">
-        <v>103.05</v>
+        <v>25.83</v>
       </c>
       <c r="C79" t="n">
-        <v>108</v>
+        <v>26.07</v>
       </c>
       <c r="D79" t="n">
-        <v>4.803493449781659</v>
+        <v>0.9291521486643584</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3206488423633802</v>
+        <v>3.14646576556612</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01382371221490408</v>
+        <v>0.004825591586327893</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46007.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B80" t="n">
-        <v>11.2</v>
+        <v>26.07</v>
       </c>
       <c r="C80" t="n">
-        <v>11.1</v>
+        <v>25.96</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.8928571428571397</v>
+        <v>-0.421940928270037</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.223625140291818</v>
+        <v>0.2577873254565155</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0089193243721436</v>
+        <v>0.02217313616901762</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BCS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B81" t="n">
-        <v>11.27</v>
+        <v>19.64</v>
       </c>
       <c r="C81" t="n">
-        <v>11.24</v>
+        <v>19.67</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2661934338952898</v>
+        <v>0.1527494908350358</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3872752420470249</v>
+        <v>-0.0910332271279013</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003552482889531472</v>
+        <v>0.009548785978527485</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46013.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B82" t="n">
-        <v>11.24</v>
+        <v>19.62</v>
       </c>
       <c r="C82" t="n">
-        <v>11.27</v>
+        <v>19.79</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2669039145907437</v>
+        <v>0.8664627930682789</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5442270597960874</v>
+        <v>-0.759464973928814</v>
       </c>
       <c r="F82" t="n">
-        <v>0.006534686759423147</v>
+        <v>0.007325541132559787</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46014.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B83" t="n">
-        <v>11.27</v>
+        <v>20.19</v>
       </c>
       <c r="C83" t="n">
-        <v>11.28</v>
+        <v>20.08</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08873114463177068</v>
+        <v>-0.5448241703813972</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2398081534772389</v>
+        <v>-0.7967220578192657</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002773231452053437</v>
+        <v>0.009362963348304332</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46029.20833333334</v>
       </c>
       <c r="B84" t="n">
-        <v>11.28</v>
+        <v>21.95</v>
       </c>
       <c r="C84" t="n">
-        <v>11.43</v>
+        <v>22.77</v>
       </c>
       <c r="D84" t="n">
-        <v>1.329787234042556</v>
+        <v>3.735763097949896</v>
       </c>
       <c r="E84" t="n">
-        <v>0.157211209842778</v>
+        <v>-0.5011960359949996</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001510770088454683</v>
+        <v>0.009926747634914301</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BBWI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46002.20833333334</v>
       </c>
       <c r="B85" t="n">
-        <v>15.58</v>
+        <v>3.04</v>
       </c>
       <c r="C85" t="n">
-        <v>15.3</v>
+        <v>3.03</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.797175866495504</v>
+        <v>-0.328947368421062</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1827125790583306</v>
+        <v>-1.352315840877494</v>
       </c>
       <c r="F85" t="n">
-        <v>0.001747716901832952</v>
+        <v>0.03009976998767872</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BTE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46009.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B86" t="n">
-        <v>14.87</v>
+        <v>3.01</v>
       </c>
       <c r="C86" t="n">
-        <v>15.16</v>
+        <v>3.15</v>
       </c>
       <c r="D86" t="n">
-        <v>1.95023537323471</v>
+        <v>4.651162790697683</v>
       </c>
       <c r="E86" t="n">
-        <v>2.161933022467144</v>
+        <v>-0.5196504869317664</v>
       </c>
       <c r="F86" t="n">
-        <v>0.007288755728653173</v>
+        <v>0.02348180637258546</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BTE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46010.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B87" t="n">
-        <v>15.16</v>
+        <v>3.04</v>
       </c>
       <c r="C87" t="n">
-        <v>15.35</v>
+        <v>3.09</v>
       </c>
       <c r="D87" t="n">
-        <v>1.253298153034299</v>
+        <v>1.644736842105265</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3872752420470249</v>
+        <v>0.970275681503141</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002116976492324341</v>
+        <v>0.03987342860582299</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BTE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B88" t="n">
-        <v>15.55</v>
+        <v>55.97</v>
       </c>
       <c r="C88" t="n">
-        <v>15.72</v>
+        <v>56.25</v>
       </c>
       <c r="D88" t="n">
-        <v>1.09324758842444</v>
+        <v>0.5002680007146765</v>
       </c>
       <c r="E88" t="n">
-        <v>0.157211209842778</v>
+        <v>-0.2921348314606775</v>
       </c>
       <c r="F88" t="n">
-        <v>0.001110251528333217</v>
+        <v>0.004949007769743607</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B89" t="n">
-        <v>17.33</v>
+        <v>55.28</v>
       </c>
       <c r="C89" t="n">
-        <v>17.64</v>
+        <v>55</v>
       </c>
       <c r="D89" t="n">
-        <v>1.78880553952685</v>
+        <v>-0.506512301013029</v>
       </c>
       <c r="E89" t="n">
-        <v>1.324181919023837</v>
+        <v>-0.5560498220640531</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0008303708034206325</v>
+        <v>0.008884580702971379</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46024.20833333334</v>
       </c>
       <c r="B90" t="n">
-        <v>126.51</v>
+        <v>55.95</v>
       </c>
       <c r="C90" t="n">
-        <v>129.61</v>
+        <v>56.89</v>
       </c>
       <c r="D90" t="n">
-        <v>2.450399177930596</v>
+        <v>1.680071492403923</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7548392322021424</v>
+        <v>2.716319824753555</v>
       </c>
       <c r="F90" t="n">
-        <v>0.009299739382311545</v>
+        <v>0.003751652060755006</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
@@ -2704,223 +2704,223 @@
         <v>46027.20833333334</v>
       </c>
       <c r="B91" t="n">
-        <v>139.88</v>
+        <v>56.89</v>
       </c>
       <c r="C91" t="n">
-        <v>141.38</v>
+        <v>57.25</v>
       </c>
       <c r="D91" t="n">
-        <v>1.072347726622813</v>
+        <v>0.6328001406222583</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5929228725927382</v>
+        <v>-2.66581360631265</v>
       </c>
       <c r="F91" t="n">
-        <v>0.005404234662526708</v>
+        <v>0.01036248332349632</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B92" t="n">
-        <v>138.91</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>136.25</v>
+        <v>91.88</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.914908933842052</v>
+        <v>0.4921798096904517</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.01734550672533031</v>
+        <v>0.3335071996459549</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01426415806101744</v>
+        <v>0.01366498228680424</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46021.20833333334</v>
       </c>
       <c r="B93" t="n">
-        <v>136.25</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>140.16</v>
+        <v>86.89</v>
       </c>
       <c r="D93" t="n">
-        <v>2.869724770642201</v>
+        <v>-0.4240201696080748</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6702835693782827</v>
+        <v>-0.7265877287405909</v>
       </c>
       <c r="F93" t="n">
-        <v>0.01897563427116722</v>
+        <v>0.01161649391471187</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46028.20833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>14.05</v>
+        <v>103.05</v>
       </c>
       <c r="C94" t="n">
-        <v>13.77</v>
+        <v>108</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.992882562277587</v>
+        <v>4.803493449781659</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.05760067026233662</v>
+        <v>-0.3206488423633802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02832772601794331</v>
+        <v>0.01382371221490408</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>BE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46022.20833333334</v>
+        <v>46007.20833333334</v>
       </c>
       <c r="B95" t="n">
-        <v>13.48</v>
+        <v>11.2</v>
       </c>
       <c r="C95" t="n">
-        <v>13.75</v>
+        <v>11.1</v>
       </c>
       <c r="D95" t="n">
-        <v>2.002967359050434</v>
+        <v>-0.8928571428571397</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9529294727472548</v>
+        <v>-2.223625140291818</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01742835032014023</v>
+        <v>0.0089193243721436</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>AVTR</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B96" t="n">
-        <v>13.66</v>
+        <v>11.27</v>
       </c>
       <c r="C96" t="n">
-        <v>13.83</v>
+        <v>11.24</v>
       </c>
       <c r="D96" t="n">
-        <v>1.244509516837478</v>
+        <v>-0.2661934338952898</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7937326048860882</v>
+        <v>0.3872752420470249</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02306445338412733</v>
+        <v>0.003552482889531472</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>AVTR</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46006.20833333334</v>
+        <v>46013.20833333334</v>
       </c>
       <c r="B97" t="n">
-        <v>2.06</v>
+        <v>11.24</v>
       </c>
       <c r="C97" t="n">
-        <v>2.06</v>
+        <v>11.27</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.2669039145907437</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1827125790583306</v>
+        <v>0.5442270597960874</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01402307956933357</v>
+        <v>0.006534686759423147</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>AVTR</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46020.20833333334</v>
+        <v>46014.20833333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.94</v>
+        <v>11.27</v>
       </c>
       <c r="C98" t="n">
-        <v>1.97</v>
+        <v>11.28</v>
       </c>
       <c r="D98" t="n">
-        <v>1.546391752577314</v>
+        <v>0.08873114463177068</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.3153492836087013</v>
+        <v>0.2398081534772389</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01072422930319361</v>
+        <v>0.002773231452053437</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>AVTR</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46030.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.7</v>
+        <v>11.28</v>
       </c>
       <c r="C99" t="n">
-        <v>1.66</v>
+        <v>11.43</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.352941176470591</v>
+        <v>1.329787234042556</v>
       </c>
       <c r="E99" t="n">
-        <v>1.324181919023837</v>
+        <v>0.157211209842778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01294322956781158</v>
+        <v>0.001510770088454683</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>AVTR</t>
         </is>
       </c>
     </row>
@@ -2929,48 +2929,48 @@
         <v>46009.20833333334</v>
       </c>
       <c r="B100" t="n">
-        <v>8.140000000000001</v>
+        <v>112.83</v>
       </c>
       <c r="C100" t="n">
-        <v>8.130000000000001</v>
+        <v>114.86</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1228501228501155</v>
+        <v>1.799166888238934</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.759464973928814</v>
+        <v>2.161933022467144</v>
       </c>
       <c r="F100" t="n">
-        <v>0.006010592953868965</v>
+        <v>0.003132943960655332</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B101" t="n">
-        <v>8.08</v>
+        <v>114.86</v>
       </c>
       <c r="C101" t="n">
-        <v>8.140000000000001</v>
+        <v>118.09</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7425742574257432</v>
+        <v>2.812119101514887</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.3294331477905366</v>
+        <v>0.3872752420470249</v>
       </c>
       <c r="F101" t="n">
-        <v>0.003575753278979077</v>
+        <v>0.003627661342282096</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2979,198 +2979,498 @@
         <v>46021.20833333334</v>
       </c>
       <c r="B102" t="n">
-        <v>8.050000000000001</v>
+        <v>117.21</v>
       </c>
       <c r="C102" t="n">
-        <v>8.07</v>
+        <v>116.69</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248447204968949</v>
+        <v>-0.4436481528879765</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.7967220578192657</v>
+        <v>-0.9903032803796119</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001328404385800175</v>
+        <v>0.004634537300203578</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B103" t="n">
-        <v>8.199999999999999</v>
+        <v>15.58</v>
       </c>
       <c r="C103" t="n">
-        <v>8.25</v>
+        <v>15.3</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6097560975609762</v>
+        <v>-1.797175866495504</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5011960359949996</v>
+        <v>0.1827125790583306</v>
       </c>
       <c r="F103" t="n">
-        <v>0.005843263061411585</v>
+        <v>0.001747716901832952</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>ASX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46015.20833333334</v>
+        <v>46009.20833333334</v>
       </c>
       <c r="B104" t="n">
-        <v>8.529999999999999</v>
+        <v>14.87</v>
       </c>
       <c r="C104" t="n">
-        <v>8.27</v>
+        <v>15.16</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.048065650644782</v>
+        <v>1.95023537323471</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.3831417624520994</v>
+        <v>2.161933022467144</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01886764251108142</v>
+        <v>0.007288755728653173</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>ASX</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46021.20833333334</v>
+        <v>46010.20833333334</v>
       </c>
       <c r="B105" t="n">
-        <v>7.83</v>
+        <v>15.16</v>
       </c>
       <c r="C105" t="n">
-        <v>7.89</v>
+        <v>15.35</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7662835249041988</v>
+        <v>1.253298153034299</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5560498220640531</v>
+        <v>0.3872752420470249</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01898353775314787</v>
+        <v>0.002116976492324341</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>ASX</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46029.20833333334</v>
+        <v>46015.20833333334</v>
       </c>
       <c r="B106" t="n">
-        <v>8.9</v>
+        <v>15.55</v>
       </c>
       <c r="C106" t="n">
-        <v>9.24</v>
+        <v>15.72</v>
       </c>
       <c r="D106" t="n">
-        <v>3.820224719101128</v>
+        <v>1.09324758842444</v>
       </c>
       <c r="E106" t="n">
-        <v>3.14646576556612</v>
+        <v>0.157211209842778</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02038163075934196</v>
+        <v>0.001110251528333217</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>ASX</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46008.20833333334</v>
+        <v>46030.20833333334</v>
       </c>
       <c r="B107" t="n">
-        <v>122.36</v>
+        <v>17.33</v>
       </c>
       <c r="C107" t="n">
-        <v>124.62</v>
+        <v>17.64</v>
       </c>
       <c r="D107" t="n">
-        <v>1.847008826413865</v>
+        <v>1.78880553952685</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.1647446457990198</v>
+        <v>1.324181919023837</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02970678013655526</v>
+        <v>0.0008303708034206325</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>ASX</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46013.20833333334</v>
+        <v>46008.20833333334</v>
       </c>
       <c r="B108" t="n">
-        <v>130.73</v>
+        <v>126.51</v>
       </c>
       <c r="C108" t="n">
-        <v>131.32</v>
+        <v>129.61</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4513118641474856</v>
+        <v>2.450399177930596</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1988430947216235</v>
+        <v>0.7548392322021424</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01172710984842917</v>
+        <v>0.009299739382311545</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>APH</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
+        <v>46027.20833333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="C109" t="n">
+        <v>141.38</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.072347726622813</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5929228725927382</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.005404234662526708</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>138.91</v>
+      </c>
+      <c r="C110" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.914908933842052</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.01734550672533031</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.01426415806101744</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>136.25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>140.16</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.869724770642201</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.6702835693782827</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.01897563427116722</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46008.20833333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1.992882562277587</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.05760067026233662</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.02832772601794331</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46022.20833333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="C113" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.002967359050434</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9529294727472548</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.01742835032014023</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="C114" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.244509516837478</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.7937326048860882</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.02306445338412733</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>46006.20833333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1827125790583306</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.01402307956933357</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>46020.20833333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.546391752577314</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.3153492836087013</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01072422930319361</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>46030.20833333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-2.352941176470591</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.324181919023837</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.01294322956781158</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>46009.20833333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.1228501228501155</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.759464973928814</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.006010592953868965</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>46015.20833333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C119" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.7425742574257432</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.3294331477905366</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.003575753278979077</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>46021.20833333334</v>
       </c>
-      <c r="B109" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="C109" t="n">
-        <v>131.03</v>
-      </c>
-      <c r="D109" t="n">
-        <v>-1.064633041377228</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-0.7430228343602741</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.01021619478740443</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>ANET</t>
+      <c r="B120" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.248447204968949</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.7967220578192657</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.001328404385800175</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46029.20833333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6097560975609762</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.5011960359949996</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.005843263061411585</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ADT</t>
         </is>
       </c>
     </row>
